--- a/data/model-population-parameters.xlsx
+++ b/data/model-population-parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91D4DFA-62DC-8347-925F-9016DA2A735F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7DCEBD-BA80-474C-91A9-E2DC960A081D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29180" windowHeight="17560" xr2:uid="{0419B776-088C-7F40-B532-C37DCE4D60FB}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,7 +560,7 @@
         <v>13</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -592,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -618,7 +618,7 @@
         <v>13</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>

--- a/data/model-population-parameters.xlsx
+++ b/data/model-population-parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7DCEBD-BA80-474C-91A9-E2DC960A081D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF39FBAE-21BA-2040-A7AE-4F3774D63BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29180" windowHeight="17560" xr2:uid="{0419B776-088C-7F40-B532-C37DCE4D60FB}"/>
   </bookViews>
@@ -153,8 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +473,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,8 +482,8 @@
     <col min="2" max="3" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -510,10 +511,10 @@
       <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -565,10 +566,10 @@
       <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>8.0749999999999993</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>6.5250000000000004</v>
       </c>
     </row>
@@ -724,10 +725,10 @@
       <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>4.1163189999999998</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>2.6932369999999999</v>
       </c>
     </row>
@@ -756,10 +757,10 @@
       <c r="H10" t="s">
         <v>17</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>4.3053720000000002</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>3.0243989999999998</v>
       </c>
     </row>
@@ -788,10 +789,10 @@
       <c r="H11" t="s">
         <v>17</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>5.4416669999999998</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>4.7750000000000004</v>
       </c>
     </row>

--- a/data/model-population-parameters.xlsx
+++ b/data/model-population-parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF39FBAE-21BA-2040-A7AE-4F3774D63BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F860D5F4-4055-DF44-9867-33475FFCD51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29180" windowHeight="17560" xr2:uid="{0419B776-088C-7F40-B532-C37DCE4D60FB}"/>
   </bookViews>
@@ -34,38 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>lake</t>
   </si>
   <si>
-    <t>garda</t>
-  </si>
-  <si>
-    <t>geneva</t>
-  </si>
-  <si>
-    <t>bourget</t>
-  </si>
-  <si>
-    <t>annecy</t>
-  </si>
-  <si>
-    <t>constance</t>
-  </si>
-  <si>
-    <t>konnevesi</t>
-  </si>
-  <si>
-    <t>ontario</t>
-  </si>
-  <si>
-    <t>apostle islands</t>
-  </si>
-  <si>
-    <t>thunder bay</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
@@ -90,9 +63,6 @@
     <t>10-25m</t>
   </si>
   <si>
-    <t>spawning.depth.m</t>
-  </si>
-  <si>
     <t>end.spawn.temp_c</t>
   </si>
   <si>
@@ -102,12 +72,6 @@
     <t>population</t>
   </si>
   <si>
-    <t>chaumont bay</t>
-  </si>
-  <si>
-    <t>superior</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -118,6 +82,60 @@
   </si>
   <si>
     <t>artedi</t>
+  </si>
+  <si>
+    <t>spawning.depth_m</t>
+  </si>
+  <si>
+    <t>Lake Garda</t>
+  </si>
+  <si>
+    <t>Lake Geneva</t>
+  </si>
+  <si>
+    <t>Lake Bourget</t>
+  </si>
+  <si>
+    <t>Lake Annecy</t>
+  </si>
+  <si>
+    <t>Lake Constance</t>
+  </si>
+  <si>
+    <t>Lake Konnevesi</t>
+  </si>
+  <si>
+    <t>Lake Ontario</t>
+  </si>
+  <si>
+    <t>Lake Superior</t>
+  </si>
+  <si>
+    <t>Garda</t>
+  </si>
+  <si>
+    <t>Geneva</t>
+  </si>
+  <si>
+    <t>Bourget</t>
+  </si>
+  <si>
+    <t>Annecy</t>
+  </si>
+  <si>
+    <t>Constance</t>
+  </si>
+  <si>
+    <t>Konnevesi</t>
+  </si>
+  <si>
+    <t>Chaumont Bay</t>
+  </si>
+  <si>
+    <t>Apostle Islands</t>
+  </si>
+  <si>
+    <t>Thunder Bay</t>
   </si>
 </sst>
 </file>
@@ -473,7 +491,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,45 +506,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>45.610489000000001</v>
@@ -535,21 +553,21 @@
         <v>10.634762</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>46.443666999999998</v>
@@ -558,13 +576,13 @@
         <v>6.5209229999999998</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1">
         <v>8.0749999999999993</v>
@@ -575,13 +593,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>45.735474000000004</v>
@@ -590,24 +608,24 @@
         <v>5.8663759999999998</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>45.866318999999997</v>
@@ -616,24 +634,24 @@
         <v>6.1610950000000004</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>47.637222999999999</v>
@@ -642,21 +660,21 @@
         <v>9.3762150000000002</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>62.609093999999999</v>
@@ -665,24 +683,24 @@
         <v>26.521398999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>62.609093999999999</v>
@@ -691,24 +709,24 @@
         <v>26.521398999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>44.037443000000003</v>
@@ -717,13 +735,13 @@
         <v>-76.186190999999994</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I9" s="1">
         <v>4.1163189999999998</v>
@@ -734,13 +752,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>46.993409999999997</v>
@@ -749,13 +767,13 @@
         <v>-90.650844000000006</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I10" s="1">
         <v>4.3053720000000002</v>
@@ -766,13 +784,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>48.410677999999997</v>
@@ -781,13 +799,13 @@
         <v>-89.035225999999994</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I11" s="1">
         <v>5.4416669999999998</v>

--- a/data/model-population-parameters.xlsx
+++ b/data/model-population-parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F860D5F4-4055-DF44-9867-33475FFCD51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3713BFE-2A8F-654D-9ABB-4A66C04F5E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29180" windowHeight="17560" xr2:uid="{0419B776-088C-7F40-B532-C37DCE4D60FB}"/>
+    <workbookView xWindow="13040" yWindow="500" windowWidth="20560" windowHeight="17560" xr2:uid="{0419B776-088C-7F40-B532-C37DCE4D60FB}"/>
   </bookViews>
   <sheets>
     <sheet name="bio-parameters" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="I11" s="1">
-        <v>5.4416669999999998</v>
+        <v>4.943492</v>
       </c>
       <c r="J11" s="1">
-        <v>4.7750000000000004</v>
+        <v>4.3679399999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/model-population-parameters.xlsx
+++ b/data/model-population-parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3713BFE-2A8F-654D-9ABB-4A66C04F5E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5528B0B5-D5A5-D145-A6DF-BA325A52A3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="500" windowWidth="20560" windowHeight="17560" xr2:uid="{0419B776-088C-7F40-B532-C37DCE4D60FB}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/model-population-parameters.xlsx
+++ b/data/model-population-parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5528B0B5-D5A5-D145-A6DF-BA325A52A3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C410ED55-4FFB-F141-A299-046A61853935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="500" windowWidth="20560" windowHeight="17560" xr2:uid="{0419B776-088C-7F40-B532-C37DCE4D60FB}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,10 +585,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="1">
-        <v>8.0749999999999993</v>
+        <v>7.95</v>
       </c>
       <c r="J3" s="1">
-        <v>6.5250000000000004</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">

--- a/data/model-population-parameters.xlsx
+++ b/data/model-population-parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C410ED55-4FFB-F141-A299-046A61853935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA721B3-309A-B24F-A652-081EA35270AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="500" windowWidth="20560" windowHeight="17560" xr2:uid="{0419B776-088C-7F40-B532-C37DCE4D60FB}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Northern Temperate</t>
   </si>
   <si>
-    <t>Northern Cold</t>
-  </si>
-  <si>
     <t>depth.group</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Thunder Bay</t>
+  </si>
+  <si>
+    <t>Northern Cool</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,13 +506,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -524,27 +524,27 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>45.610489000000001</v>
@@ -556,18 +556,18 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>46.443666999999998</v>
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1">
         <v>7.95</v>
@@ -593,13 +593,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>45.735474000000004</v>
@@ -614,18 +614,18 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>45.866318999999997</v>
@@ -640,18 +640,24 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6.19</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5.89</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>47.637222999999999</v>
@@ -663,18 +669,18 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>62.609093999999999</v>
@@ -683,24 +689,24 @@
         <v>26.521398999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>62.609093999999999</v>
@@ -709,24 +715,30 @@
         <v>26.521398999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5.6</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>44.037443000000003</v>
@@ -741,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1">
         <v>4.1163189999999998</v>
@@ -752,13 +764,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>46.993409999999997</v>
@@ -773,7 +785,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" s="1">
         <v>4.3053720000000002</v>
@@ -784,13 +796,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>48.410677999999997</v>
@@ -805,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="1">
         <v>4.943492</v>

--- a/data/model-population-parameters.xlsx
+++ b/data/model-population-parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA721B3-309A-B24F-A652-081EA35270AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829E3D4B-70D4-E747-BF6F-D5A350878428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="500" windowWidth="20560" windowHeight="17560" xr2:uid="{0419B776-088C-7F40-B532-C37DCE4D60FB}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,6 +697,12 @@
       <c r="H7" t="s">
         <v>6</v>
       </c>
+      <c r="I7" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">

--- a/data/model-population-parameters.xlsx
+++ b/data/model-population-parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829E3D4B-70D4-E747-BF6F-D5A350878428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E822076-1B88-CB4D-853B-0B52CEBA8D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="500" windowWidth="20560" windowHeight="17560" xr2:uid="{0419B776-088C-7F40-B532-C37DCE4D60FB}"/>
+    <workbookView xWindow="9100" yWindow="2560" windowWidth="20560" windowHeight="17560" xr2:uid="{0419B776-088C-7F40-B532-C37DCE4D60FB}"/>
   </bookViews>
   <sheets>
     <sheet name="bio-parameters" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>lake</t>
   </si>
@@ -136,6 +136,90 @@
   </si>
   <si>
     <t>Northern Cool</t>
+  </si>
+  <si>
+    <t>#/////////////////////////////////////</t>
+  </si>
+  <si>
+    <t># -----START OF METADATA -----</t>
+  </si>
+  <si>
+    <t># ------------------------------------------------</t>
+  </si>
+  <si>
+    <t># AUTHOR: Taylor R. Stewart</t>
+  </si>
+  <si>
+    <t># AUTHOR EMAIL: taylor.stewart@uvm.edu</t>
+  </si>
+  <si>
+    <t># AUTHOR ADDRESS: 3 College St, Burlington VT, 05401 USA</t>
+  </si>
+  <si>
+    <t># AUTHOR WEBSITE: https://taylorstewart.github.io/</t>
+  </si>
+  <si>
+    <t># OWNERSHIP: Taylor R. Stewart</t>
+  </si>
+  <si>
+    <t># VARIABLE DESCRIPTION:</t>
+  </si>
+  <si>
+    <t># DATE: 1-July-2021</t>
+  </si>
+  <si>
+    <t># TITLE: Biological parameters for temperature-dependent embryo development model</t>
+  </si>
+  <si>
+    <t># FUNDING SOURCES: USGS #G17AC00042</t>
+  </si>
+  <si>
+    <t># REPOSITORY: https://github.com/taylorstewart/Stewart-et-al-20XX---Coregonine-Embryo-Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># CITATIONS: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # lake: name of lake sampled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # population: name of population within lake sampled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # species: species name of population sampled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # lat: latitude of population sampled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # lon: longitude of population sampled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # climate.group: climate group of population accoding to Maberly et al. (2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # spawning.depth_m: depth of spawning; m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # depth.group: depth zone of spawning depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # start.spawn.temp_c: contemporary water temperature determined to initiate spawning; °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # end.spawn.temp_c: contemporary water temperature determined to cease spawning; °C</t>
+  </si>
+  <si>
+    <t># ----- END OF METADATA -----</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># ----- START OF DATA -----</t>
+  </si>
+  <si>
+    <t># COLLABORATORS: Matteo Zucchetta; Juha Karjalainen; Chloé Goulon; Orlane Anneville; Mark R. Vinson; Josef Wanzenböck; and Jason D. Stockwell</t>
   </si>
 </sst>
 </file>
@@ -488,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7301D4E-8BA2-4B4A-8D60-EE53F68E2720}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,329 +590,549 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I1"/>
+      <c r="J1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>45.610489000000001</v>
-      </c>
-      <c r="E2">
-        <v>10.634762</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>46.443666999999998</v>
-      </c>
-      <c r="E3">
-        <v>6.5209229999999998</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1">
-        <v>7.95</v>
-      </c>
-      <c r="J3" s="1">
-        <v>6.63</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>45.735474000000004</v>
-      </c>
-      <c r="E4">
-        <v>5.8663759999999998</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>45.866318999999997</v>
-      </c>
-      <c r="E5">
-        <v>6.1610950000000004</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6.19</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5.89</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>47.637222999999999</v>
-      </c>
-      <c r="E6">
-        <v>9.3762150000000002</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>62.609093999999999</v>
-      </c>
-      <c r="E7">
-        <v>26.521398999999999</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5.99</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4.7</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>62.609093999999999</v>
-      </c>
-      <c r="E8">
-        <v>26.521398999999999</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5.6</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>44.037443000000003</v>
-      </c>
-      <c r="E9">
-        <v>-76.186190999999994</v>
-      </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4.1163189999999998</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2.6932369999999999</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>46.993409999999997</v>
-      </c>
-      <c r="E10">
-        <v>-90.650844000000006</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4.3053720000000002</v>
-      </c>
-      <c r="J10" s="1">
-        <v>3.0243989999999998</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>45.610489000000001</v>
+      </c>
+      <c r="E36">
+        <v>10.634762</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>46.443666999999998</v>
+      </c>
+      <c r="E37">
+        <v>6.5209229999999998</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="J37" s="1">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>45.735474000000004</v>
+      </c>
+      <c r="E38">
+        <v>5.8663759999999998</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>45.866318999999997</v>
+      </c>
+      <c r="E39">
+        <v>6.1610950000000004</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="1">
+        <v>6.19</v>
+      </c>
+      <c r="J39" s="1">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>47.637222999999999</v>
+      </c>
+      <c r="E40">
+        <v>9.3762150000000002</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>62.609093999999999</v>
+      </c>
+      <c r="E41">
+        <v>26.521398999999999</v>
+      </c>
+      <c r="F41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>62.609093999999999</v>
+      </c>
+      <c r="E42">
+        <v>26.521398999999999</v>
+      </c>
+      <c r="F42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="J42" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>44.037443000000003</v>
+      </c>
+      <c r="E43">
+        <v>-76.186190999999994</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="1">
+        <v>4.1163189999999998</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2.6932369999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>46.993409999999997</v>
+      </c>
+      <c r="E44">
+        <v>-90.650844000000006</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4.3053720000000002</v>
+      </c>
+      <c r="J44" s="1">
+        <v>3.0243989999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B45" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
+      <c r="D45">
         <v>48.410677999999997</v>
       </c>
-      <c r="E11">
+      <c r="E45">
         <v>-89.035225999999994</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F45" t="s">
         <v>4</v>
       </c>
-      <c r="G11">
+      <c r="G45">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H45" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I45" s="1">
         <v>4.943492</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J45" s="1">
         <v>4.3679399999999999</v>
       </c>
     </row>

--- a/data/model-population-parameters.xlsx
+++ b/data/model-population-parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/Library/CloudStorage/GoogleDrive-taylorstewart@utah.gov/My Drive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E822076-1B88-CB4D-853B-0B52CEBA8D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE14D5C-AAA4-B343-A14B-7AC01C08F8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="2560" windowWidth="20560" windowHeight="17560" xr2:uid="{0419B776-088C-7F40-B532-C37DCE4D60FB}"/>
+    <workbookView xWindow="9100" yWindow="760" windowWidth="20560" windowHeight="17480" xr2:uid="{0419B776-088C-7F40-B532-C37DCE4D60FB}"/>
   </bookViews>
   <sheets>
     <sheet name="bio-parameters" sheetId="1" r:id="rId1"/>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7301D4E-8BA2-4B4A-8D60-EE53F68E2720}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="I39" s="1">
-        <v>6.19</v>
+        <v>7.91</v>
       </c>
       <c r="J39" s="1">
-        <v>5.89</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
